--- a/xlsx/中东_intext.xlsx
+++ b/xlsx/中东_intext.xlsx
@@ -15,2103 +15,2082 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t>中东</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_中东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%A7%86%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>亚拉姆语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>亚美尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>阿塞拜疆语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E8%B7%AF%E6%94%AF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>俾路支语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希伯来语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>库尔德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>波斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>索马里语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>土耳其语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%BE%85</t>
+  </si>
+  <si>
+    <t>开罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%9D%A6%E5%B8%83%E5%B0%94</t>
+  </si>
+  <si>
+    <t>伊斯坦布尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD</t>
+  </si>
+  <si>
+    <t>德黑兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
+  </si>
+  <si>
+    <t>巴格达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%9B%85%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>利雅德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%81%94</t>
+  </si>
+  <si>
+    <t>吉达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安卡拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>北非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>外高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E4%BA%9A%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>欧亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%B8%AD%E5%BF%83%E8%AB%96</t>
+  </si>
+  <si>
+    <t>欧洲中心论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>近东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>波斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%A0%BC%E9%87%8C%E5%B8%83</t>
+  </si>
+  <si>
+    <t>马格里布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏丹共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>阿拉伯世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E9%83%BD%E5%9B%A0%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>贝都因人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>科普特人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%B2%81%E5%85%B9%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>德鲁兹人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%A5%BF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>帕西人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>库尔德人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B9%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>雅兹迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%A1%94%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>贝塔以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E5%B0%94%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>柏柏尔人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E9%98%BF%E9%9B%B7%E6%A0%BC%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>图阿雷格人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%BF%B0%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚述人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>切尔克斯人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%89%8E%E6%8B%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>哈扎拉人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%91%8A%E8%8C%B2%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>加告兹人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%81%B0%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>布拉灰人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%AE%BF%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>圣殿山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>麦加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%88%BE%E7%99%BD</t>
+  </si>
+  <si>
+    <t>克尔白</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99</t>
+  </si>
+  <si>
+    <t>回教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
+  </si>
+  <si>
+    <t>穆斯林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2</t>
+  </si>
+  <si>
+    <t>激进</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9C%B0%E9%82%A3</t>
+  </si>
+  <si>
+    <t>麦地那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AD%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>东正教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BB%AA%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>东仪天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E4%BC%8A%E6%95%99</t>
+  </si>
+  <si>
+    <t>巴哈伊教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%90%E7%BD%97%E4%BA%9A%E6%96%AF%E5%BE%B7%E6%95%99</t>
+  </si>
+  <si>
+    <t>琐罗亚斯德教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%BE%BE%E6%95%99</t>
+  </si>
+  <si>
+    <t>曼达教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚美尼亚人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>古埃及文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>美索不达米亚文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
+  </si>
+  <si>
+    <t>各国国内生产总值列表 (购买力平价)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%B4%8D%E7%91%AA</t>
+  </si>
+  <si>
+    <t>麦纳玛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
+  </si>
+  <si>
+    <t>巴林第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尼古西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
+  </si>
+  <si>
+    <t>欧元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%9F%E8%80%B3%E5%85%B6%E9%87%8C%E6%8B%89</t>
+  </si>
+  <si>
+    <t>新土耳其里拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E9%8E%8A</t>
+  </si>
+  <si>
+    <t>埃及镑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E9%87%8C%E4%BA%9E%E7%88%BE</t>
+  </si>
+  <si>
+    <t>伊朗里亚尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>伊斯兰共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
+  </si>
+  <si>
+    <t>伊拉克第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>叙利亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>库德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%96%B0%E8%B0%A2%E5%85%8B%E5%B0%94</t>
+  </si>
+  <si>
+    <t>以色列新谢克尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>安曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
+  </si>
+  <si>
+    <t>约旦第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E5%B8%82</t>
+  </si>
+  <si>
+    <t>科威特市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E7%AC%AC%E7%BA%B3%E5%B0%94</t>
+  </si>
+  <si>
+    <t>科威特第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E9%B2%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>贝鲁特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E9%8E%8A</t>
+  </si>
+  <si>
+    <t>黎巴嫩镑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%96%AF%E5%96%80%E7%89%B9</t>
+  </si>
+  <si>
+    <t>马斯喀特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E9%87%8C%E4%BA%9E%E7%88%BE</t>
+  </si>
+  <si>
+    <t>阿曼里亚尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>加沙地带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9</t>
+  </si>
+  <si>
+    <t>加萨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>军政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>约旦河西岸地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E5%AE%89%E6%8B%89</t>
+  </si>
+  <si>
+    <t>拉姆安拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%88</t>
+  </si>
+  <si>
+    <t>多哈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E9%87%8C%E4%BA%9E%E7%88%BE</t>
+  </si>
+  <si>
+    <t>卡达里亚尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙乌地阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%87%8C%E4%BA%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>沙特里亚尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>大马士革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E9%8E%8A</t>
+  </si>
+  <si>
+    <t>叙利亚镑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%89%8E%E6%AF%94</t>
+  </si>
+  <si>
+    <t>阿布扎比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%94%E9%85%8B%E8%BF%AA%E5%B0%94%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿联酋迪尔汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
+  </si>
+  <si>
+    <t>叶门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E9%82%A3</t>
+  </si>
+  <si>
+    <t>萨那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E9%87%8C%E4%BA%9E%E7%88%BE</t>
+  </si>
+  <si>
+    <t>叶门里亚尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>国际货币基金组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>世界银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>大中东地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E5%B0%94</t>
+  </si>
+  <si>
+    <t>喀布尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>阿富汗尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>达利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9B%BE%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>普什图语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E7%88%BE</t>
+  </si>
+  <si>
+    <t>阿尔及尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
+  </si>
+  <si>
+    <t>阿尔及利亚第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%87%8C%E6%BA%AB</t>
+  </si>
+  <si>
+    <t>叶里温</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E5%BE%B7%E6%8B%89%E5%A7%86</t>
+  </si>
+  <si>
+    <t>亚美尼亚德拉姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%BA%93</t>
+  </si>
+  <si>
+    <t>巴库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E9%A9%AC%E7%BA%B3%E7%89%B9</t>
+  </si>
+  <si>
+    <t>阿塞拜疆马纳特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>亚塞拜然语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
+  </si>
+  <si>
+    <t>科摩罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>莫洛尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9%E6%B3%95%E9%83%8E</t>
+  </si>
+  <si>
+    <t>葛摩法郎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>科摩罗语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E5%B8%82</t>
+  </si>
+  <si>
+    <t>吉布地市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E6%B3%95%E9%83%8E</t>
+  </si>
+  <si>
+    <t>吉布地法郎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%95%E7%88%BE%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿法尔语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E9%A6%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>阿斯马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A%E7%BA%B3%E5%85%8B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>厄立特里亚纳克法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>临时政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%A0%BC%E5%88%A9%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>提格利尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E6%AF%94%E5%88%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>第比利斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E6%8B%89%E9%87%8C</t>
+  </si>
+  <si>
+    <t>格鲁吉亚拉里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>乔治亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%A1%94%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>阿斯塔纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9D%9A%E6%88%88</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦坚戈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>哈萨克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>吉尔吉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BB%80%E5%87%AF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>比什凯克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E7%B4%A2%E5%A7%86</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦索姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>吉尔吉斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E9%BB%8E%E6%B3%A2%E9%87%8C</t>
+  </si>
+  <si>
+    <t>的黎波里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
+  </si>
+  <si>
+    <t>利比亚第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E7%93%A6%E5%85%8B%E8%82%96%E7%89%B9</t>
+  </si>
+  <si>
+    <t>努瓦克肖特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E%E7%83%8F%E5%90%89%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚乌吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E7%89%B9</t>
+  </si>
+  <si>
+    <t>拉巴特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E8%BF%AA%E5%B0%94%E6%B1%97</t>
+  </si>
+  <si>
+    <t>摩洛哥迪尔汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>伊斯兰堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%9B%A7%E6%AF%94</t>
+  </si>
+  <si>
+    <t>巴基斯坦卢比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E9%83%BD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>乌尔都语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>索马利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E4%BC%91</t>
+  </si>
+  <si>
+    <t>摩加迪休</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E%E5%85%88%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>索马利亚先令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%9C%9F%E7%A9%86</t>
+  </si>
+  <si>
+    <t>喀土穆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E9%8E%8A</t>
+  </si>
+  <si>
+    <t>苏丹镑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%B0%9A%E5%88%AB</t>
+  </si>
+  <si>
+    <t>杜尚别</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E7%B4%A2%E8%8E%AB%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>塔吉克索莫尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>塔吉克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E5%B8%82</t>
+  </si>
+  <si>
+    <t>突尼斯市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
+  </si>
+  <si>
+    <t>突尼斯第纳尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E5%93%88%E5%B7%B4%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>阿什哈巴德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E9%A6%AC%E7%B4%8D%E7%89%B9</t>
+  </si>
+  <si>
+    <t>土库曼马纳特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>土库曼语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
+  </si>
+  <si>
+    <t>乌兹别克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E4%BB%80%E5%B9%B2</t>
+  </si>
+  <si>
+    <t>塔什干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E7%B4%A2%E5%A7%86</t>
+  </si>
+  <si>
+    <t>乌兹别克索姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>乌兹别克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%92%92%E5%93%88%E6%8B%89%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯撒哈拉民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%A4%E6%81%A9</t>
+  </si>
+  <si>
+    <t>阿尤恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国地理区划列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
+  </si>
+  <si>
+    <t>东亚岛弧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>东印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>印度次大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>撒哈拉以南非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>东部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
+  </si>
+  <si>
+    <t>非洲之角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西北非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
+  </si>
+  <si>
+    <t>欧俄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>中美 (政治地理学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>加勒比地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>盎格鲁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>伊比利亚美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西班牙语美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中部美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>澳大利亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大拉西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>美拉尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>密克罗尼西亚群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻里尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>极地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北极地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>环太平洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>亚太地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
+  </si>
+  <si>
+    <t>独立国家国协</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>世界大洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>印度洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>北冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>南冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
+  </si>
+  <si>
+    <t>热带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>赤道多雨气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带干湿季气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带草原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带干旱半干旱气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带季风气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
+  </si>
+  <si>
+    <t>亚热带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>副热带湿润气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>副热带季风气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>温带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带海洋性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带大陆性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>地中海式气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带草原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带干旱半干旱气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带季风气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>寒带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>极地气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>副极地大陆性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E5%8E%9F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>苔原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>极地冰原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>高地气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
+  </si>
+  <si>
+    <t>生物地理分布区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
+  </si>
+  <si>
+    <t>新北界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8C%97%E7%95%8C</t>
+  </si>
+  <si>
+    <t>古北界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
+  </si>
+  <si>
+    <t>东洋界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
+  </si>
+  <si>
+    <t>澳新界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%83%AD%E5%B8%A6%E7%95%8C</t>
+  </si>
+  <si>
+    <t>新热带界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E7%95%8C</t>
+  </si>
+  <si>
+    <t>南极界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9D%9E%E6%B4%B2%E5%88%86%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>Template talk-非洲分区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>东非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>西非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>大湖地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A_(%E5%9C%B0%E5%8C%BA)</t>
+  </si>
+  <si>
+    <t>几内亚 (地区)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中东地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%B5%AB%E5%8B%92</t>
+  </si>
+  <si>
+    <t>萨赫勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E8%8D%89%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>苏丹草原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E8%BE%BE%E7%B1%B3%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>美索不达米亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>阿拉伯半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>沙姆地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%BD%97%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>尼罗河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>巴勒斯坦问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>西撒哈拉问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E5%90%88%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>海湾阿拉伯国家合作委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A9%AC%E6%A0%BC%E9%87%8C%E5%B8%83%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯马格里布联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%97%97%E5%B8%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>阿拉伯旗帜列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
+  </si>
+  <si>
+    <t>泛阿拉伯颜色</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_中东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%A7%86%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>亚拉姆语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E8%B7%AF%E6%94%AF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>俾路支语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>法语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>希腊语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>希伯来语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>库尔德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>波斯语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>索马里语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>土耳其语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%BE%85</t>
-  </si>
-  <si>
-    <t>開羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%9D%A6%E5%B8%83%E5%B0%94</t>
-  </si>
-  <si>
-    <t>伊斯坦布尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD</t>
-  </si>
-  <si>
-    <t>德黑蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
-  </si>
-  <si>
-    <t>巴格達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%9B%85%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>利雅德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%81%94</t>
-  </si>
-  <si>
-    <t>吉達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安卡拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>北非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>外高加索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E4%BA%9A%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>欧亚大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%B8%AD%E5%BF%83%E8%AB%96</t>
-  </si>
-  <si>
-    <t>歐洲中心論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>近东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>地中海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>波斯湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%A0%BC%E9%87%8C%E5%B8%83</t>
-  </si>
-  <si>
-    <t>马格里布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>苏丹共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>阿拉伯世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
-  </si>
-  <si>
-    <t>石油</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E9%83%BD%E5%9B%A0%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>贝都因人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>科普特人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%B2%81%E5%85%B9%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>德鲁兹人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%A5%BF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>帕西人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>库尔德人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B9%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>雅兹迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%A1%94%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>贝塔以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E5%B0%94%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>柏柏尔人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E9%98%BF%E9%9B%B7%E6%A0%BC%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>圖阿雷格人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%BF%B0%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亚述人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>切尔克斯人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%89%8E%E6%8B%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>哈扎拉人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%91%8A%E8%8C%B2%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>加告茲人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%81%B0%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>布拉灰人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
-  </si>
-  <si>
-    <t>耶路撒冷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%AE%BF%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>圣殿山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>麥加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%88%BE%E7%99%BD</t>
-  </si>
-  <si>
-    <t>克爾白</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99</t>
-  </si>
-  <si>
-    <t>回教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
-  </si>
-  <si>
-    <t>猶太教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
-  </si>
-  <si>
-    <t>穆斯林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2</t>
-  </si>
-  <si>
-    <t>激進</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9C%B0%E9%82%A3</t>
-  </si>
-  <si>
-    <t>麥地那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AD%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>东正教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BB%AA%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>东仪天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E4%BC%8A%E6%95%99</t>
-  </si>
-  <si>
-    <t>巴哈伊教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%90%E7%BD%97%E4%BA%9A%E6%96%AF%E5%BE%B7%E6%95%99</t>
-  </si>
-  <si>
-    <t>琐罗亚斯德教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%BE%BE%E6%95%99</t>
-  </si>
-  <si>
-    <t>曼达教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亚美尼亚人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>古埃及文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>美索不達米亞文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
-  </si>
-  <si>
-    <t>貨幣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%B4%8D%E7%91%AA</t>
-  </si>
-  <si>
-    <t>麥納瑪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
-  </si>
-  <si>
-    <t>巴林第納爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尼古西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
-  </si>
-  <si>
-    <t>歐元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%9F%E8%80%B3%E5%85%B6%E9%87%8C%E6%8B%89</t>
-  </si>
-  <si>
-    <t>新土耳其里拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>土耳其語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E9%8E%8A</t>
-  </si>
-  <si>
-    <t>埃及鎊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E9%87%8C%E4%BA%9E%E7%88%BE</t>
-  </si>
-  <si>
-    <t>伊朗里亞爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>伊斯兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>波斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
-  </si>
-  <si>
-    <t>伊拉克第納爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>敘利亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>庫德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%96%B0%E8%B0%A2%E5%85%8B%E5%B0%94</t>
-  </si>
-  <si>
-    <t>以色列新谢克尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>希伯來語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>安曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
-  </si>
-  <si>
-    <t>約旦第納爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E5%B8%82</t>
-  </si>
-  <si>
-    <t>科威特市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E7%AC%AC%E7%BA%B3%E5%B0%94</t>
-  </si>
-  <si>
-    <t>科威特第纳尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E9%B2%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>贝鲁特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E9%8E%8A</t>
-  </si>
-  <si>
-    <t>黎巴嫩鎊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%96%AF%E5%96%80%E7%89%B9</t>
-  </si>
-  <si>
-    <t>马斯喀特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E9%87%8C%E4%BA%9E%E7%88%BE</t>
-  </si>
-  <si>
-    <t>阿曼里亞爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>加沙地带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9</t>
-  </si>
-  <si>
-    <t>加薩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>軍政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>約旦河西岸地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E5%AE%89%E6%8B%89</t>
-  </si>
-  <si>
-    <t>拉姆安拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%88</t>
-  </si>
-  <si>
-    <t>多哈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E9%87%8C%E4%BA%9E%E7%88%BE</t>
-  </si>
-  <si>
-    <t>卡達里亞爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙烏地阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%87%8C%E4%BA%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>沙特里亚尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>大馬士革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E9%8E%8A</t>
-  </si>
-  <si>
-    <t>敘利亞鎊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%89%8E%E6%AF%94</t>
-  </si>
-  <si>
-    <t>阿布扎比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%94%E9%85%8B%E8%BF%AA%E5%B0%94%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿联酋迪尔汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
-  </si>
-  <si>
-    <t>葉門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E9%82%A3</t>
-  </si>
-  <si>
-    <t>萨那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E9%87%8C%E4%BA%9E%E7%88%BE</t>
-  </si>
-  <si>
-    <t>葉門里亞爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>國際貨幣基金組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>世界銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>大中东地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E5%B0%94</t>
-  </si>
-  <si>
-    <t>喀布尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>阿富汗尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>達利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9B%BE%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>普什图语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E7%88%BE</t>
-  </si>
-  <si>
-    <t>阿爾及爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
-  </si>
-  <si>
-    <t>阿爾及利亞第納爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%87%8C%E6%BA%AB</t>
-  </si>
-  <si>
-    <t>葉里溫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E5%BE%B7%E6%8B%89%E5%A7%86</t>
-  </si>
-  <si>
-    <t>亚美尼亚德拉姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%BA%93</t>
-  </si>
-  <si>
-    <t>巴库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E9%A9%AC%E7%BA%B3%E7%89%B9</t>
-  </si>
-  <si>
-    <t>阿塞拜疆马纳特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>亞塞拜然語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>莫洛尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9%E6%B3%95%E9%83%8E</t>
-  </si>
-  <si>
-    <t>葛摩法郎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>科摩罗语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E5%B8%82</t>
-  </si>
-  <si>
-    <t>吉布地市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E6%B3%95%E9%83%8E</t>
-  </si>
-  <si>
-    <t>吉布地法郎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>索馬里語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%95%E7%88%BE%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿法爾語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E9%A6%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>阿斯馬拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A%E7%BA%B3%E5%85%8B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>厄立特里亚纳克法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>臨時政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%A0%BC%E5%88%A9%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>提格利尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E6%AF%94%E5%88%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>第比利斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E6%8B%89%E9%87%8C</t>
-  </si>
-  <si>
-    <t>格鲁吉亚拉里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>喬治亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%A1%94%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>阿斯塔納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9D%9A%E6%88%88</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦坚戈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>哈薩克語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>俄語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>吉爾吉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BB%80%E5%87%AF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>比什凯克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E7%B4%A2%E5%A7%86</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦索姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>吉爾吉斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E9%BB%8E%E6%B3%A2%E9%87%8C</t>
-  </si>
-  <si>
-    <t>的黎波里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
-  </si>
-  <si>
-    <t>利比亞第納爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E7%93%A6%E5%85%8B%E8%82%96%E7%89%B9</t>
-  </si>
-  <si>
-    <t>努瓦克肖特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E%E7%83%8F%E5%90%89%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>毛里塔尼亞烏吉亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E7%89%B9</t>
-  </si>
-  <si>
-    <t>拉巴特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E8%BF%AA%E5%B0%94%E6%B1%97</t>
-  </si>
-  <si>
-    <t>摩洛哥迪尔汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>伊斯兰堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%9B%A7%E6%AF%94</t>
-  </si>
-  <si>
-    <t>巴基斯坦盧比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E9%83%BD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>烏爾都語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>索馬利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E4%BC%91</t>
-  </si>
-  <si>
-    <t>摩加迪休</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E%E5%85%88%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>索馬利亞先令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%9C%9F%E7%A9%86</t>
-  </si>
-  <si>
-    <t>喀土穆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E9%8E%8A</t>
-  </si>
-  <si>
-    <t>蘇丹鎊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%B0%9A%E5%88%AB</t>
-  </si>
-  <si>
-    <t>杜尚别</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E7%B4%A2%E8%8E%AB%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>塔吉克索莫尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>塔吉克語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E5%B8%82</t>
-  </si>
-  <si>
-    <t>突尼斯市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
-  </si>
-  <si>
-    <t>突尼斯第納爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E5%93%88%E5%B7%B4%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>阿什哈巴德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E9%A6%AC%E7%B4%8D%E7%89%B9</t>
-  </si>
-  <si>
-    <t>土庫曼馬納特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>土庫曼語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
-  </si>
-  <si>
-    <t>烏茲別克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E4%BB%80%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>塔什干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E7%B4%A2%E5%A7%86</t>
-  </si>
-  <si>
-    <t>烏茲別克索姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>烏茲別克語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%92%92%E5%93%88%E6%8B%89%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯撒哈拉民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%A4%E6%81%A9</t>
-  </si>
-  <si>
-    <t>阿尤恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
-  </si>
-  <si>
-    <t>維基導遊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>联合国地理区划列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>中亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
-  </si>
-  <si>
-    <t>東亞島弧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>東印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>印度次大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>撒哈拉以南非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>东部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
-  </si>
-  <si>
-    <t>非洲之角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西北非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>巴爾幹半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>中美 (政治地理学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>加勒比地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>盎格鲁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>伊比利亚美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西班牙语美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中部美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>澳大利亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大拉西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>美拉尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻里尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>极地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北极地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>環太平洋地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>亚太地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
-  </si>
-  <si>
-    <t>獨立國家國協</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>高加索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>世界大洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>印度洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>北冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>南冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
-  </si>
-  <si>
-    <t>熱帶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>热带草原气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>热带干旱半干旱气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
-  </si>
-  <si>
-    <t>亞熱帶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>副热带湿润气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>温带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带海洋性气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>溫帶大陸性氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>地中海式气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带草原气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带干旱半干旱气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带季风气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>寒带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>極地氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>副极地大陆性气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E5%8E%9F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>苔原气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>高地氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
-  </si>
-  <si>
-    <t>生物地理分布區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
-  </si>
-  <si>
-    <t>新北界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8C%97%E7%95%8C</t>
-  </si>
-  <si>
-    <t>古北界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
-  </si>
-  <si>
-    <t>東洋界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
-  </si>
-  <si>
-    <t>澳新界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%83%AD%E5%B8%A6%E7%95%8C</t>
-  </si>
-  <si>
-    <t>新热带界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E7%95%8C</t>
-  </si>
-  <si>
-    <t>南极界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9D%9E%E6%B4%B2%E5%88%86%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>Template talk-非洲分区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>东非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>西非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>大湖地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A_(%E5%9C%B0%E5%8C%BA)</t>
-  </si>
-  <si>
-    <t>几内亚 (地区)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中东地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%B5%AB%E5%8B%92</t>
-  </si>
-  <si>
-    <t>萨赫勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E8%8D%89%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>苏丹草原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E8%BE%BE%E7%B1%B3%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>美索不达米亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>阿拉伯半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>沙姆地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%BD%97%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>尼罗河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>巴勒斯坦问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>西撒哈拉问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E5%90%88%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>海湾阿拉伯国家合作委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A9%AC%E6%A0%BC%E9%87%8C%E5%B8%83%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯马格里布联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%97%97%E5%B8%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>阿拉伯旗帜列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
-  </si>
-  <si>
-    <t>泛阿拉伯顏色</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:I369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5672,7 +5651,7 @@
         <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
         <v>28</v>
@@ -5698,10 +5677,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5727,10 +5706,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5756,10 +5735,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5785,10 +5764,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5814,10 +5793,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>17</v>
@@ -5843,10 +5822,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5872,10 +5851,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5901,10 +5880,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5930,10 +5909,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>13</v>
@@ -5959,10 +5938,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5988,10 +5967,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6017,10 +5996,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6046,10 +6025,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6075,10 +6054,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6104,10 +6083,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6133,10 +6112,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6162,10 +6141,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -6191,10 +6170,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6220,10 +6199,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6249,10 +6228,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6278,10 +6257,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6307,10 +6286,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6336,10 +6315,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6365,10 +6344,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6394,10 +6373,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6423,10 +6402,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6452,10 +6431,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6481,10 +6460,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6510,10 +6489,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6539,10 +6518,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6568,10 +6547,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6597,10 +6576,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6626,10 +6605,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6655,10 +6634,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6684,10 +6663,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6713,10 +6692,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6742,10 +6721,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6771,10 +6750,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6800,10 +6779,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6829,10 +6808,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6858,10 +6837,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6887,10 +6866,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6916,10 +6895,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6945,10 +6924,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6974,10 +6953,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7003,10 +6982,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7032,10 +7011,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7061,10 +7040,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7090,10 +7069,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7119,10 +7098,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -7148,10 +7127,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7177,10 +7156,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7206,10 +7185,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7235,10 +7214,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7264,10 +7243,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7293,10 +7272,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7322,10 +7301,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7351,10 +7330,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7380,10 +7359,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7409,10 +7388,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7438,10 +7417,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7467,10 +7446,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7496,10 +7475,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7525,10 +7504,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7554,10 +7533,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7583,10 +7562,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7612,10 +7591,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7641,10 +7620,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7670,10 +7649,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7699,10 +7678,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7728,10 +7707,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7757,10 +7736,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>24</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7786,10 +7765,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7815,10 +7794,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7844,10 +7823,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7873,10 +7852,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7902,10 +7881,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7931,10 +7910,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7960,10 +7939,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7989,10 +7968,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8018,10 +7997,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8047,10 +8026,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8076,10 +8055,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8105,10 +8084,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8134,10 +8113,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8163,10 +8142,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8192,10 +8171,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8221,10 +8200,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8250,10 +8229,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8279,10 +8258,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8308,10 +8287,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8366,10 +8345,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8395,10 +8374,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8424,10 +8403,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8453,10 +8432,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8482,10 +8461,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8511,10 +8490,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8540,10 +8519,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8569,10 +8548,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8598,10 +8577,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8627,10 +8606,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8656,10 +8635,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -8685,10 +8664,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8714,10 +8693,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8743,10 +8722,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8772,10 +8751,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8801,10 +8780,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8830,10 +8809,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8859,10 +8838,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8888,10 +8867,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8917,10 +8896,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8946,10 +8925,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8975,10 +8954,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9004,10 +8983,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9033,10 +9012,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9062,10 +9041,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9091,10 +9070,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9120,10 +9099,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9149,10 +9128,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9178,10 +9157,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9207,10 +9186,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9236,10 +9215,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9265,10 +9244,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9294,10 +9273,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9323,10 +9302,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9352,10 +9331,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>16</v>
@@ -9381,10 +9360,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9410,10 +9389,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9439,10 +9418,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9468,10 +9447,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9497,10 +9476,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9526,10 +9505,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9555,10 +9534,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>42</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9584,10 +9563,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9613,10 +9592,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9671,10 +9650,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9700,10 +9679,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9729,10 +9708,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9758,10 +9737,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9787,10 +9766,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9816,10 +9795,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9845,10 +9824,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9874,10 +9853,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9903,10 +9882,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9932,10 +9911,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9961,10 +9940,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9990,10 +9969,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10019,10 +9998,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10048,10 +10027,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10077,10 +10056,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F263" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10106,10 +10085,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10135,10 +10114,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10164,10 +10143,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10193,10 +10172,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10222,10 +10201,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10251,10 +10230,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10280,10 +10259,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10309,10 +10288,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10338,10 +10317,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G272" t="n">
         <v>11</v>
@@ -10367,10 +10346,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10396,10 +10375,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10425,10 +10404,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10454,10 +10433,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10483,10 +10462,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10512,10 +10491,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10541,10 +10520,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10570,10 +10549,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10599,10 +10578,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10628,10 +10607,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10657,10 +10636,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10686,10 +10665,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10715,10 +10694,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10744,10 +10723,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10773,10 +10752,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10802,10 +10781,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10831,10 +10810,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10860,10 +10839,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10889,10 +10868,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10918,10 +10897,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -10947,10 +10926,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10976,10 +10955,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11005,10 +10984,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11034,10 +11013,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11063,10 +11042,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11121,10 +11100,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11150,10 +11129,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11179,10 +11158,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11208,10 +11187,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11237,10 +11216,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11266,10 +11245,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11295,10 +11274,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11324,10 +11303,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11382,10 +11361,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>10</v>
@@ -11411,10 +11390,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11440,10 +11419,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11469,10 +11448,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11498,10 +11477,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11527,10 +11506,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11556,10 +11535,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11585,10 +11564,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11614,10 +11593,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11643,10 +11622,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G317" t="n">
         <v>8</v>
@@ -11672,10 +11651,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11701,10 +11680,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11730,10 +11709,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11759,10 +11738,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11788,10 +11767,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11817,10 +11796,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11846,10 +11825,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11875,10 +11854,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11904,10 +11883,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11933,10 +11912,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11962,10 +11941,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11991,10 +11970,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12020,10 +11999,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12049,10 +12028,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12078,10 +12057,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12107,10 +12086,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12136,10 +12115,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12165,10 +12144,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12194,10 +12173,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12223,10 +12202,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12252,10 +12231,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G338" t="n">
         <v>5</v>
@@ -12310,10 +12289,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12339,10 +12318,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12368,10 +12347,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F342" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12397,10 +12376,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F343" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12426,10 +12405,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F344" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12455,10 +12434,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12484,10 +12463,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12513,10 +12492,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F347" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12600,10 +12579,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G350" t="n">
         <v>7</v>
@@ -12629,10 +12608,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12658,10 +12637,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12687,10 +12666,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12716,10 +12695,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12745,10 +12724,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12774,10 +12753,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12803,10 +12782,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12861,10 +12840,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F359" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -12890,10 +12869,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12919,10 +12898,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12948,10 +12927,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12977,10 +12956,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13006,10 +12985,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13035,10 +13014,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13064,10 +13043,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F366" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13093,10 +13072,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F367" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13105,6 +13084,64 @@
         <v>4</v>
       </c>
       <c r="I367" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>367</v>
+      </c>
+      <c r="E368" t="s">
+        <v>689</v>
+      </c>
+      <c r="F368" t="s">
+        <v>690</v>
+      </c>
+      <c r="G368" t="n">
+        <v>11</v>
+      </c>
+      <c r="H368" t="s">
+        <v>4</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>368</v>
+      </c>
+      <c r="E369" t="s">
+        <v>689</v>
+      </c>
+      <c r="F369" t="s">
+        <v>691</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1</v>
+      </c>
+      <c r="H369" t="s">
+        <v>4</v>
+      </c>
+      <c r="I369" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/中东_intext.xlsx
+++ b/xlsx/中东_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="701">
   <si>
     <t>中东</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿拉伯语</t>
   </si>
   <si>
-    <t>政策_政策_美國_中东</t>
+    <t>体育运动_体育运动_伊朗_中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%A7%86%E8%AF%AD</t>
@@ -1080,6 +1080,12 @@
   </si>
   <si>
     <t>葛摩法郎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>聯邦共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97%E8%AF%AD</t>
@@ -2460,7 +2466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:I368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7676,7 +7682,7 @@
         <v>358</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7705,7 +7711,7 @@
         <v>360</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7763,7 +7769,7 @@
         <v>364</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7792,7 +7798,7 @@
         <v>366</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7821,7 +7827,7 @@
         <v>368</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7850,7 +7856,7 @@
         <v>370</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7966,7 +7972,7 @@
         <v>378</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7995,7 +8001,7 @@
         <v>380</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8082,7 +8088,7 @@
         <v>386</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8111,7 +8117,7 @@
         <v>388</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8198,7 +8204,7 @@
         <v>394</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8256,7 +8262,7 @@
         <v>398</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8337,13 +8343,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="F203" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8366,13 +8372,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>99</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>100</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8517,7 +8523,7 @@
         <v>414</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8575,7 +8581,7 @@
         <v>418</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8662,7 +8668,7 @@
         <v>424</v>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8720,7 +8726,7 @@
         <v>428</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8952,7 +8958,7 @@
         <v>444</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8981,7 +8987,7 @@
         <v>446</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9271,7 +9277,7 @@
         <v>466</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9300,7 +9306,7 @@
         <v>468</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9358,7 +9364,7 @@
         <v>472</v>
       </c>
       <c r="G238" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9387,7 +9393,7 @@
         <v>474</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9503,7 +9509,7 @@
         <v>482</v>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9532,7 +9538,7 @@
         <v>484</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9642,10 +9648,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9671,10 +9677,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>55</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>56</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9764,7 +9770,7 @@
         <v>498</v>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9845,13 +9851,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9880,7 +9886,7 @@
         <v>500</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9903,10 +9909,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10077,13 +10083,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>319</v>
+        <v>515</v>
       </c>
       <c r="F263" t="s">
-        <v>320</v>
+        <v>516</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10106,10 +10112,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>319</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>320</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10170,7 +10176,7 @@
         <v>520</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10228,7 +10234,7 @@
         <v>524</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10344,7 +10350,7 @@
         <v>532</v>
       </c>
       <c r="G272" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10373,7 +10379,7 @@
         <v>534</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10431,7 +10437,7 @@
         <v>538</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10518,7 +10524,7 @@
         <v>544</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10570,13 +10576,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10599,13 +10605,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10924,7 +10930,7 @@
         <v>570</v>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10953,7 +10959,7 @@
         <v>572</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11092,10 +11098,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>111</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>112</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11121,10 +11127,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>111</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>112</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11156,7 +11162,7 @@
         <v>584</v>
       </c>
       <c r="G300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11185,7 +11191,7 @@
         <v>586</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11214,7 +11220,7 @@
         <v>588</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11243,7 +11249,7 @@
         <v>590</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11353,10 +11359,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>119</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>120</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11382,13 +11388,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>119</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>120</v>
       </c>
       <c r="G308" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11417,7 +11423,7 @@
         <v>600</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11533,7 +11539,7 @@
         <v>608</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11562,7 +11568,7 @@
         <v>610</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11649,7 +11655,7 @@
         <v>616</v>
       </c>
       <c r="G317" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -11678,7 +11684,7 @@
         <v>618</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11852,7 +11858,7 @@
         <v>630</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -11910,7 +11916,7 @@
         <v>634</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12258,7 +12264,7 @@
         <v>658</v>
       </c>
       <c r="G338" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12281,13 +12287,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>43</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12310,10 +12316,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>43</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>44</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12368,10 +12374,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>505</v>
+        <v>663</v>
       </c>
       <c r="F342" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12397,10 +12403,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F343" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12426,10 +12432,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F344" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12455,10 +12461,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>501</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>502</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12513,10 +12519,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>512</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12542,10 +12548,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>95</v>
+        <v>513</v>
       </c>
       <c r="F348" t="s">
-        <v>96</v>
+        <v>514</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12571,10 +12577,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F349" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12600,13 +12606,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>57</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>58</v>
       </c>
       <c r="G350" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -12635,7 +12641,7 @@
         <v>670</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12832,13 +12838,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>95</v>
+        <v>683</v>
       </c>
       <c r="F358" t="s">
-        <v>96</v>
+        <v>684</v>
       </c>
       <c r="G358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -12861,13 +12867,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>659</v>
+        <v>95</v>
       </c>
       <c r="F359" t="s">
-        <v>660</v>
+        <v>96</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -12890,13 +12896,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13105,6 +13111,35 @@
         <v>4</v>
       </c>
       <c r="I367" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>367</v>
+      </c>
+      <c r="E368" t="s">
+        <v>699</v>
+      </c>
+      <c r="F368" t="s">
+        <v>700</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1</v>
+      </c>
+      <c r="H368" t="s">
+        <v>4</v>
+      </c>
+      <c r="I368" t="n">
         <v>3</v>
       </c>
     </row>
